--- a/data/income_statement/2digits/size/82_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/82_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>82-Office administrative, office support and other business support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>82-Office administrative, office support and other business support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,659 +841,744 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>586929.9813199999</v>
+        <v>623006.88504</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>661035.8889199999</v>
+        <v>693823.5616</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>750433.17486</v>
+        <v>787824.7304</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>777811.1290899999</v>
+        <v>826432.65549</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>830059.3269700001</v>
+        <v>874877.0795</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>881714.42461</v>
+        <v>946366.35002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>923067.7964100001</v>
+        <v>1011360.27457</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1059797.32161</v>
+        <v>1174515.14311</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1740881.48343</v>
+        <v>1865861.41708</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2584946.90258</v>
+        <v>2795278.14492</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2897618.14321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3336475.46214</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2758828.807</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>538980.06461</v>
+        <v>569975.9179499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>599209.68851</v>
+        <v>628075.34737</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>681223.81765</v>
+        <v>713951.37294</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>705186.34538</v>
+        <v>748656.1469500001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>758448.4914100001</v>
+        <v>797079.95141</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>785253.05521</v>
+        <v>843982.53551</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>843518.88165</v>
+        <v>921074.6157199999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>958415.3809099998</v>
+        <v>1065959.2755</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1018791.16753</v>
+        <v>1131454.77907</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2212588.56793</v>
+        <v>2399211.97684</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2493882.55747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2876281.16031</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2382800.406</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>38333.8577</v>
+        <v>41945.21565</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>49380.37374</v>
+        <v>50961.76444</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>52551.57557</v>
+        <v>55811.63735000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>55750.89079</v>
+        <v>59286.44784</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>50075.21911</v>
+        <v>53403.91287</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>76010.95881</v>
+        <v>77727.39465</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>59048.09646</v>
+        <v>66487.8578</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>75098.78610000001</v>
+        <v>77616.87952</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>700889.31995</v>
+        <v>707565.51638</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>324236.89361</v>
+        <v>334463.85494</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>354514.23924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>395142.57323</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>310194.234</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9616.059009999999</v>
+        <v>11085.75144</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>12445.82667</v>
+        <v>14786.44979</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16657.78164</v>
+        <v>18061.72011</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16873.89292</v>
+        <v>18490.0607</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>21535.61645</v>
+        <v>24393.21522</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20450.41059</v>
+        <v>24656.41986</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>20500.8183</v>
+        <v>23797.80105</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>26283.1546</v>
+        <v>30938.98809</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>21200.99595</v>
+        <v>26841.12163</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>48121.44104</v>
+        <v>61602.31314</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>49221.3465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>65051.7286</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>65834.167</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6882.566460000001</v>
+        <v>8188.901090000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5684.293970000001</v>
+        <v>5828.99879</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4824.61006</v>
+        <v>5725.30476</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4946.549059999999</v>
+        <v>5457.490839999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5224.6578</v>
+        <v>5930.628769999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5468.10286</v>
+        <v>5777.350689999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4515.27505</v>
+        <v>5618.337850000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4590.333590000001</v>
+        <v>8485.51115</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6744.85221</v>
+        <v>8663.010219999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>13296.51206</v>
+        <v>15483.4543</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>17438.01508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23767.62186</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>44860.071</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6089.58839</v>
+        <v>7340.210670000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5079.98191</v>
+        <v>5206.315759999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4453.1234</v>
+        <v>5329.39726</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4435.405839999999</v>
+        <v>4817.52436</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4390.529030000001</v>
+        <v>5052.7011</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3567.90264</v>
+        <v>3835.80531</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3819.52372</v>
+        <v>4912.2558</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3619.70417</v>
+        <v>7432.57357</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6175.042</v>
+        <v>7999.61563</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>11587.57627</v>
+        <v>13671.78308</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>16121.37439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>22278.10389</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>43411.649</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>433.213</v>
+        <v>443.29152</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>280.11911</v>
+        <v>287.11844</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>301.43531</v>
+        <v>324.87001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>206.70489</v>
+        <v>226.55324</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>598.94764</v>
+        <v>603.36062</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1181.4676</v>
+        <v>1210.40942</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>371.14098</v>
+        <v>376.08009</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>215.14307</v>
+        <v>294.61957</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>178.4109</v>
+        <v>258.00539</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>821.2635499999999</v>
+        <v>843.7766899999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>597.12243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>708.0098400000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1011.245</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>359.76507</v>
+        <v>405.3989</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>324.1929499999999</v>
+        <v>335.56459</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>70.05135</v>
+        <v>71.03749000000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>304.43833</v>
+        <v>413.41324</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>235.18113</v>
+        <v>274.56705</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>718.73262</v>
+        <v>731.13596</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>324.61035</v>
+        <v>330.0019599999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>755.48635</v>
+        <v>758.31801</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>391.39931</v>
+        <v>405.3892</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>887.6722400000001</v>
+        <v>967.89453</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>719.5182600000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>781.5081300000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>437.177</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>580047.41486</v>
+        <v>614817.98395</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>655351.5949500001</v>
+        <v>687994.5628099999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>745608.5648000001</v>
+        <v>782099.42564</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>772864.58003</v>
+        <v>820975.16465</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>824834.6691700001</v>
+        <v>868946.45073</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>876246.32175</v>
+        <v>940588.99933</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>918552.52136</v>
+        <v>1005741.93672</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1055206.98802</v>
+        <v>1166029.63196</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1734136.63122</v>
+        <v>1857198.40686</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2571650.39052</v>
+        <v>2779794.69062</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2880180.12813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3312707.84028</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2713968.736</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>435885.8293</v>
+        <v>457919.8103100001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>486533.91324</v>
+        <v>507858.94317</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>558248.82465</v>
+        <v>582108.70424</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>586809.72692</v>
+        <v>620064.7123299999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>632077.45432</v>
+        <v>660299.36723</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>673348.14295</v>
+        <v>712860.8341</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>687363.3811500001</v>
+        <v>749026.44904</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>804891.9022</v>
+        <v>878156.5406900001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1463437.43237</v>
+        <v>1543608.63461</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2019663.33057</v>
+        <v>2172558.89582</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2254058.52373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2577347.402499999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2090685.9</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>24361.55598</v>
+        <v>27793.09393</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>20661.0884</v>
+        <v>22559.19388</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>28764.94334</v>
+        <v>29387.63017</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>29162.5911</v>
+        <v>33451.68222</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>22010.30888</v>
+        <v>23939.82019</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>32812.28202</v>
+        <v>36632.06503</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23985.0068</v>
+        <v>28678.45066</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28274.55087</v>
+        <v>32666.66683</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>150663.32586</v>
+        <v>156806.69785</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>82225.77499000001</v>
+        <v>95437.76144</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>97023.25833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>113732.53904</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>116769.79</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>144486.11474</v>
+        <v>150664.6753</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>148424.56831</v>
+        <v>153475.20498</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>155471.09892</v>
+        <v>163026.15343</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>161793.69385</v>
+        <v>169397.34539</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>152765.98962</v>
+        <v>160472.20279</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>173324.35827</v>
+        <v>184179.22037</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>164576.96614</v>
+        <v>182512.7093</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>247123.31207</v>
+        <v>265286.64524</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>202885.3022</v>
+        <v>220969.07705</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>561462.80193</v>
+        <v>601598.53099</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>640028.73749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>758538.50368</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>824965.791</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>266447.2736</v>
+        <v>278854.42895</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>315916.4249700001</v>
+        <v>330174.40091</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>373167.64042</v>
+        <v>388825.36511</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>390750.69666</v>
+        <v>412055.2591499999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>455986.11272</v>
+        <v>474498.42389</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>465955.24248</v>
+        <v>490738.28536</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>496608.00426</v>
+        <v>535424.0345</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>527008.0422199999</v>
+        <v>576675.39391</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1106446.7255</v>
+        <v>1160472.03689</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1363304.88227</v>
+        <v>1458895.69269</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1497585.06326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1682494.51479</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1125113.065</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>590.8849799999999</v>
+        <v>607.61213</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1531.83156</v>
+        <v>1650.1434</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>845.14197</v>
+        <v>869.55553</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5102.745309999999</v>
+        <v>5160.425569999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1315.0431</v>
+        <v>1388.92036</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1256.26018</v>
+        <v>1311.26334</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2193.40395</v>
+        <v>2411.25458</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2485.99704</v>
+        <v>3527.83471</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3442.07881</v>
+        <v>5360.822819999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>12669.87138</v>
+        <v>16626.9107</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>19421.46465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22581.84499</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23837.254</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>144161.58556</v>
+        <v>156898.17364</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>168817.68171</v>
+        <v>180135.61964</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>187359.74015</v>
+        <v>199990.7214</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>186054.85311</v>
+        <v>200910.45232</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>192757.21485</v>
+        <v>208647.0835</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>202898.1788</v>
+        <v>227728.16523</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>231189.14021</v>
+        <v>256715.48768</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>250315.08582</v>
+        <v>287873.09127</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>270699.19885</v>
+        <v>313589.77225</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>551987.05995</v>
+        <v>607235.7948</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>626121.6044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>735360.4377799999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>623282.836</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>132863.92382</v>
+        <v>145609.75862</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>146134.94642</v>
+        <v>161943.93423</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>165102.04863</v>
+        <v>187559.85703</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>170688.70568</v>
+        <v>196235.85094</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>179194.47529</v>
+        <v>200623.55313</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>197445.11335</v>
+        <v>233482.09595</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>222766.96012</v>
+        <v>265754.82281</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>252617.41404</v>
+        <v>303655.161</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>269608.51122</v>
+        <v>327231.63388</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>485827.84535</v>
+        <v>548248.29275</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>580948.44614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>678983.7499500001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>623030.436</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>94.08287000000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>580.9225</v>
+        <v>710.5748199999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>185.28975</v>
+        <v>194.15375</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>173.86592</v>
+        <v>182.55177</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>89.83058</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>39.2657</v>
+        <v>419.8711700000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2883.39548</v>
+        <v>2964.9617</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>185.4049</v>
@@ -1604,445 +1590,505 @@
         <v>1392.5825</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>867.7043400000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>885.8441799999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1387.089</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15457.1152</v>
+        <v>17032.86265</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>21663.80777</v>
+        <v>23416.19867</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>23414.41785</v>
+        <v>25245.60165</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>20905.45451</v>
+        <v>23872.71934</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21190.68551</v>
+        <v>23228.38005</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>28782.94199</v>
+        <v>32312.48574</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>26219.86591</v>
+        <v>31570.88706</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>38999.63196</v>
+        <v>44694.38606</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>35752.14265</v>
+        <v>43333.51179</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>74600.60761000001</v>
+        <v>81570.2657</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>87609.76426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>97020.64937</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>85916.311</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>117312.72575</v>
+        <v>128482.8131</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>123890.21615</v>
+        <v>137817.16074</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>141502.34103</v>
+        <v>162120.10163</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>149609.38525</v>
+        <v>172180.57983</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>157913.9592</v>
+        <v>177305.3425</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>168622.90566</v>
+        <v>200749.73904</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>193663.69873</v>
+        <v>231218.97405</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>213432.37718</v>
+        <v>258775.37004</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>233361.96125</v>
+        <v>283403.71477</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>409834.65524</v>
+        <v>465285.44455</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>492470.9775399999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>581077.2564</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>535727.036</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>11297.66174</v>
+        <v>11288.41502</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>22682.73529</v>
+        <v>18191.68541</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>22257.69152</v>
+        <v>12430.86437</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>15366.14743</v>
+        <v>4674.601380000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>13562.73956</v>
+        <v>8023.53037</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5453.06545</v>
+        <v>-5753.930719999998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8422.18009</v>
+        <v>-9039.335130000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2302.32822</v>
+        <v>-15782.06973</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1090.68763</v>
+        <v>-13641.86163</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>66159.21460000001</v>
+        <v>58987.50205</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>45173.15826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>56376.68783</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>252.4</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4893.51239</v>
+        <v>41520.10566</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5473.68754</v>
+        <v>61583.61676</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8159.64618</v>
+        <v>90502.21934000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7937.952609999999</v>
+        <v>258664.2385</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9407.76476</v>
+        <v>33433.53618</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9584.619419999999</v>
+        <v>48572.46567000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13286.04029</v>
+        <v>61517.69393</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16316.23755</v>
+        <v>60012.80100000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>11451.10755</v>
+        <v>65504.84221</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>55564.50358</v>
+        <v>119784.66468</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>43005.48667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>80706.30254</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>146250.504</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>280.81872</v>
+        <v>1167.34788</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>108.81539</v>
+        <v>1209.3743</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1370.94018</v>
+        <v>1946.5551</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>486.80021</v>
+        <v>2779.51347</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>314.3856999999999</v>
+        <v>858.98046</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>33.9178</v>
+        <v>265.60261</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>207.34149</v>
+        <v>1346.30394</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>5051.12903</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>186.14214</v>
+        <v>1057.39949</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>448.80271</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>481.34172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1838.40428</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4483.226</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>922.7305699999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>50187.17814</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>66930.2115</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>220853.67426</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>59.09216000000001</v>
+        <v>13115.5515</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>158.32167</v>
+        <v>19478.92067</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10.59257</v>
+        <v>15007.0682</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>166.0675</v>
+        <v>16995.7263</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>101.8125</v>
+        <v>28070.57616</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>508.64007</v>
+        <v>11866.95719</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>653.44359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>8073.68491</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>15267.2</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1074.10566</v>
+        <v>1833.90177</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>854.6132399999999</v>
+        <v>2451.52969</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>979.2104199999999</v>
+        <v>6023.66269</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1389.76021</v>
+        <v>4863.287429999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1363.14991</v>
+        <v>2866.05239</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1533.8271</v>
+        <v>6701.10811</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1659.55503</v>
+        <v>7776.628200000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2437.56723</v>
+        <v>8022.79681</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2337.452420000001</v>
+        <v>8962.484980000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7702.389000000001</v>
+        <v>26844.84876</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11817.58344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21443.3564</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>20578.186</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>449.82499</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>73.80114</v>
+        <v>336.25561</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>433.36331</v>
+        <v>765.42774</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>641.14966</v>
+        <v>1163.49919</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>468.81662</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1186.12604</v>
+        <v>1227.55755</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>544.4897199999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>569.04715</v>
+        <v>616.2234599999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>430.2377</v>
+        <v>875.7081599999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>524.17291</v>
+        <v>539.0615</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1454.74919</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1465.95322</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>962.323</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>53.08547</v>
+        <v>711.3946099999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>302.0071100000001</v>
+        <v>328.6116700000001</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>89.23687</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>322.4969800000001</v>
+        <v>1276.69699</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>21.44075</v>
+        <v>54.48875</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>70.60926000000001</v>
+        <v>100.60926</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>34.9464</v>
+        <v>42.52822999999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>52.59219</v>
+        <v>75.45629</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>144.66878</v>
+        <v>586.9965800000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>579.6085899999999</v>
+        <v>1158.34972</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>76.86343000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>684.69929</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2341.694</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>185.13974</v>
+        <v>249.57458</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>285.81124</v>
+        <v>364.90183</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>169.79464</v>
+        <v>283.00927</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>223.42313</v>
+        <v>1817.03064</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>165.82418</v>
+        <v>226.09495</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>101.83346</v>
+        <v>344.75361</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>220.4916700000001</v>
+        <v>453.39525</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1849.53256</v>
+        <v>2323.51649</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>137.30849</v>
+        <v>1083.98137</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1077.57098</v>
+        <v>2149.43338</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>914.44577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1636.7103</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3394.015</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1583.71536</v>
+        <v>33647.10175</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2186.20176</v>
+        <v>4158.03419</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3761.72992</v>
+        <v>11649.94523</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2167.65658</v>
+        <v>21755.25615</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4305.96731</v>
+        <v>11171.99902</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3338.94455</v>
+        <v>15530.47848</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6832.96792</v>
+        <v>26478.33858</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5180.87984</v>
+        <v>12433.73808</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4410.54442</v>
+        <v>10579.30744</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>38432.76223000001</v>
+        <v>64888.84186</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>18282.30582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29737.35801</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>77849.518</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>36.50232</v>
+        <v>214.95171</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>64.74114</v>
@@ -2051,10 +2097,10 @@
         <v>105.75681</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>58.99879</v>
+        <v>391.80186</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>9.85</v>
+        <v>342.65307</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0.54155</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>263.73959</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.65938</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>5.26217</v>
+        <v>5.26284</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0.25126</v>
@@ -2096,7 +2147,7 @@
         <v>0.08829000000000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>0.27842</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>8.8043</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>35.47</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1229.66075</v>
+        <v>2322.61842</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1592.43435</v>
+        <v>2477.72735</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1249.36277</v>
+        <v>2708.16287</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2647.66705</v>
+        <v>3763.478509999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2699.14984</v>
+        <v>4328.81113</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3160.49799</v>
+        <v>4922.61541</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3732.71243</v>
+        <v>9825.998749999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6046.374360000001</v>
+        <v>14480.03782</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3672.24101</v>
+        <v>14257.68794</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>6278.24182</v>
+        <v>11876.05429</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9052.20982</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15553.59224</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>21338.872</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3098.46618</v>
+        <v>35661.82536</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3549.38219</v>
+        <v>6804.094700000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6891.01625</v>
+        <v>10451.61567</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3984.919249999999</v>
+        <v>25409.87828</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4231.01169</v>
+        <v>11976.51707</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4296.713049999999</v>
+        <v>16194.09725</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7896.92928</v>
+        <v>66301.36091</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14514.04459</v>
+        <v>24747.96963</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7017.18006</v>
+        <v>17196.60616</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>38175.20997</v>
+        <v>75367.98424999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19995.15245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>40234.84125</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>80994.96000000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>150.48918</v>
+        <v>170.62981</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>210.34264</v>
+        <v>233.50198</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>474.67433</v>
+        <v>480.81397</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>616.55978</v>
+        <v>1806.79281</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>328.16019</v>
+        <v>331.5292</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>797.70697</v>
+        <v>819.9532</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>469.6871599999999</v>
+        <v>480.43961</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>271.1889</v>
+        <v>304.03676</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>604.0491</v>
+        <v>622.97435</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1180.69255</v>
+        <v>1395.79776</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1991.48906</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2112.99517</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1507.269</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>924.88936</v>
+        <v>1210.76667</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>338.37605</v>
+        <v>409.19561</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2273.47316</v>
+        <v>2425.03716</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>176.59169</v>
+        <v>1117.38732</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>389.4640600000001</v>
+        <v>404.4640600000001</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>95.07711</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>533.70636</v>
+        <v>49294.73034999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1242.57567</v>
+        <v>1495.82364</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1751.04417</v>
+        <v>2070.15864</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>692.3203600000001</v>
+        <v>748.66476</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1035.97643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2838.336929999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1453.824</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>4.18528</v>
+        <v>4.3044</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>154.72012</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>32.82765</v>
+        <v>38.77629</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>82.64214</v>
+        <v>200.86265</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4.31501</v>
+        <v>8.705579999999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2.61826</v>
+        <v>33.06421</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>25.25016</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>19.98129</v>
+        <v>181.41546</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>8.863530000000001</v>
+        <v>508.87335</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>825.3290999999999</v>
+        <v>921.04336</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>197.66975</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>202.50024</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>759.6079999999999</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1502.1512</v>
+        <v>32922.55732</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2145.5243</v>
+        <v>5258.131240000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3260.4118</v>
+        <v>6579.121349999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2512.64799</v>
+        <v>21127.66735</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2893.86676</v>
+        <v>8820.295269999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3093.59833</v>
+        <v>13729.4376</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6348.89391</v>
+        <v>15717.50206</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9696.498589999999</v>
+        <v>15137.92457</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3529.92939</v>
+        <v>9784.671049999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>33209.83268</v>
+        <v>69588.91853</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>15137.89058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29721.00847</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>72097.39</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>5.01936</v>
+        <v>407.59322</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>3.36847</v>
@@ -2381,16 +2467,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>239.16068</v>
+        <v>311.70695</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0.00037</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4e-05</v>
@@ -2408,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0</v>
+        <v>25.0034</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>42.20192</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>18.649</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>511.73176</v>
+        <v>945.9739000000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>664.0401500000002</v>
+        <v>712.16682</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>839.40265</v>
+        <v>917.6402399999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>526.60099</v>
+        <v>1087.29149</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>615.2056700000001</v>
+        <v>2411.52296</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>305.77743</v>
+        <v>1489.62678</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>519.39169</v>
+        <v>783.4387300000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3283.29754</v>
+        <v>7628.266600000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1123.29387</v>
+        <v>4209.92877</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1899.70887</v>
+        <v>2273.687159999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1589.92434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5317.79815</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5157.957</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3438.87138</v>
+        <v>5109.14475</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2819.76119</v>
+        <v>4081.4381</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3675.28574</v>
+        <v>5927.818</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4877.09783</v>
+        <v>9030.69887</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4131.57788</v>
+        <v>8014.42445</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4140.567550000001</v>
+        <v>7803.34474</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4215.95495</v>
+        <v>9513.601359999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5994.999620000001</v>
+        <v>11474.51803</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6402.79847</v>
+        <v>12968.92226</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>20981.34598</v>
+        <v>31976.36777</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>25657.82465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38973.7606</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31443.398</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3288.47877</v>
+        <v>4958.75214</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2679.63604</v>
+        <v>3941.31295</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3528.06103</v>
+        <v>5780.59329</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4751.83712</v>
+        <v>8418.438679999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4052.49917</v>
+        <v>7169.737679999998</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4053.23272</v>
+        <v>7629.477599999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4008.05859</v>
+        <v>9305.705</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5835.90783</v>
+        <v>11307.68584</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6273.4181</v>
+        <v>12784.66247</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20463.86661</v>
+        <v>31418.7197</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>25278.3956</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>37663.74905</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>30151.989</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>150.39261</v>
@@ -2558,235 +2669,265 @@
         <v>147.22471</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>125.26071</v>
+        <v>612.2601900000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>79.07871</v>
+        <v>844.68677</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>87.33482999999998</v>
+        <v>173.86714</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>207.89636</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>159.09179</v>
+        <v>166.83219</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>129.38037</v>
+        <v>184.25979</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>517.47937</v>
+        <v>557.64807</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>379.42905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1310.01155</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1291.409</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9653.836569999999</v>
+        <v>12037.55057</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>21787.27945</v>
+        <v>68889.76936999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>19851.03571</v>
+        <v>86553.65004000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14442.08296</v>
+        <v>228898.26273</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>14607.91475</v>
+        <v>21466.12503</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6600.40427</v>
+        <v>18821.09296</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>9595.336150000001</v>
+        <v>-23336.60347</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-6495.13488</v>
+        <v>8008.243610000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-878.1833499999999</v>
+        <v>21697.45216</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>62567.16222999999</v>
+        <v>71427.81470999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>42525.66783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>57874.38852</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>34064.546</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3181.11232</v>
+        <v>3644.48047</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3532.7813</v>
+        <v>4514.6033</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5191.09996</v>
+        <v>5415.71735</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4008.67005</v>
+        <v>6908.99705</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4505.37863</v>
+        <v>8579.76849</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5971.946819999999</v>
+        <v>10942.16531</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4897.536550000001</v>
+        <v>9155.429600000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8879.48927</v>
+        <v>12921.87695</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7762.137299999999</v>
+        <v>14539.38837</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>21475.12975</v>
+        <v>46782.42868</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>32042.41603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35564.9766</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>32073.815</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>92.29092999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>37.85061</v>
+        <v>38.38591</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>126.77233</v>
+        <v>129.26713</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7.922479999999999</v>
+        <v>61.53660000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>122.16964</v>
+        <v>128.50067</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>28.32202</v>
+        <v>94.95802999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>50.53358</v>
+        <v>53.49286</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>104.4348</v>
+        <v>157.63715</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>12.83959</v>
+        <v>2719.35344</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>53.14259</v>
+        <v>69.16638999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>296.1572200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>386.05813</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>403.716</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3088.82139</v>
+        <v>3552.18954</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3494.93069</v>
+        <v>4476.217390000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5064.32763</v>
+        <v>5286.45022</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4000.74757</v>
+        <v>6847.46045</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4383.20899</v>
+        <v>8451.267820000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5943.6248</v>
+        <v>10847.20728</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4847.00297</v>
+        <v>9101.936740000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8775.054470000001</v>
+        <v>12764.2398</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7749.297709999999</v>
+        <v>11820.03493</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21421.98716</v>
+        <v>46713.26229000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>31746.25881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>35178.91847</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>31670.099</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4506.049760000001</v>
+        <v>11323.05812</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4955.882</v>
+        <v>9465.68627</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>51650.75106999999</v>
+        <v>53732.69996</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11274.23145</v>
+        <v>12576.29068</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6647.63843</v>
+        <v>11093.02156</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>24723.63041</v>
+        <v>33611.55398</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8705.717349999999</v>
+        <v>14682.68973</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>29856.17899</v>
+        <v>53112.31556</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9097.10468</v>
+        <v>16777.70488</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>61253.44888</v>
+        <v>77110.60243</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>31102.32601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>45761.35824</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>31663.855</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>175.61403</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>7.58049</v>
+        <v>19.92988</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>67.40967999999999</v>
@@ -2798,220 +2939,248 @@
         <v>195.29176</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>26.96481</v>
+        <v>28.39099</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>54.39511</v>
+        <v>507.89639</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>180.59093</v>
+        <v>619.4914</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>141.57568</v>
+        <v>182.16873</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1150.07974</v>
+        <v>1280.07974</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>384.94301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>387.59479</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1562.273</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>279.7844</v>
+        <v>290.63861</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>227.36077</v>
+        <v>237.0233</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>529.86638</v>
+        <v>595.5865200000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>314.27091</v>
+        <v>397.61949</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>167.63073</v>
+        <v>213.90316</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>529.35837</v>
+        <v>1026.47018</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1035.93448</v>
+        <v>1739.85104</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1343.32083</v>
+        <v>1640.26082</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1206.48389</v>
+        <v>2439.543169999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>763.0156500000001</v>
+        <v>3079.37686</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>449.33064</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3473.6179</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1676.305</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4050.65133</v>
+        <v>10856.80548</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4720.94074</v>
+        <v>9208.73309</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>51053.47500999999</v>
+        <v>53069.70376</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10763.37283</v>
+        <v>11982.08348</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6284.715939999999</v>
+        <v>10683.82664</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24167.30723</v>
+        <v>32556.69281</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7615.38776</v>
+        <v>12434.9423</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>28332.26723</v>
+        <v>50852.56334</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7749.04511</v>
+        <v>14155.99298</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>59340.35349</v>
+        <v>72751.14582999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>30268.05236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>41900.14554999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>28425.277</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>8328.89913</v>
+        <v>4358.97292</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>20364.17875</v>
+        <v>63938.68640000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-26608.6154</v>
+        <v>38236.66742999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7176.52156</v>
+        <v>223230.9691</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>12465.65495</v>
+        <v>18952.87196</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-12151.27932</v>
+        <v>-3848.295709999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5787.15535</v>
+        <v>-28863.8636</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-27471.8246</v>
+        <v>-32182.195</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2213.15073</v>
+        <v>19459.13565</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>22788.8431</v>
+        <v>41099.64096</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>43465.75784999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>47678.00688000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>34474.506</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5653.426759999999</v>
+        <v>6772.91539</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>6902.556159999999</v>
+        <v>7922.88806</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7807.870210000001</v>
+        <v>8497.90634</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7960.83582</v>
+        <v>9429.601430000002</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7867.562480000001</v>
+        <v>9339.548469999998</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7850.61261</v>
+        <v>10741.78636</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8865.64667</v>
+        <v>13953.65769</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>8580.683879999999</v>
+        <v>12625.20742</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9612.729190000002</v>
+        <v>13652.07294</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>28318.47215</v>
+        <v>35206.17318999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29049.25096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>38269.14428</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>40517.085</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2675.47237</v>
+        <v>-2413.94247</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>13461.62259</v>
+        <v>56015.79834</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-34416.48561</v>
+        <v>29738.76109</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-784.3142600000002</v>
+        <v>213801.36767</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4598.09247</v>
+        <v>9613.323490000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-20001.89193</v>
+        <v>-14590.08207</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3078.49132</v>
+        <v>-42817.52129</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-36052.50848</v>
+        <v>-44807.40241999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-11825.87992</v>
+        <v>5807.062709999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5529.629049999999</v>
+        <v>5893.46777</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>14416.50689</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9408.862600000002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-6042.579</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2381</v>
+        <v>2485</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2475</v>
+        <v>2592</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2643</v>
+        <v>2761</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2639</v>
+        <v>2794</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2610</v>
+        <v>2779</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2737</v>
+        <v>2956</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2800</v>
+        <v>3088</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3015</v>
+        <v>3364</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3276</v>
+        <v>3633</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4317</v>
+        <v>4844</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5257</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>